--- a/追加機能資料/テスト/テスト仕様書/Android_追加機能テスト仕様書.xlsx
+++ b/追加機能資料/テスト/テスト仕様書/Android_追加機能テスト仕様書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t>項目番号</t>
   </si>
@@ -470,12 +470,620 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">退会後の各画面遷移テスト
+内部ストレージを削除するので、各画面で影響がないかテスト
+</t>
+    <rPh sb="0" eb="3">
+      <t>タイカイゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新着情報一覧画面</t>
+    <rPh sb="0" eb="4">
+      <t>シンチャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会員証画面</t>
+    <rPh sb="0" eb="3">
+      <t>カイインショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>退会後、アカウントを新規登録できるかテスト
+仮会員を作成すること</t>
+    <rPh sb="0" eb="3">
+      <t>タイカイゴ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カリカイイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>退会後、ログインができること</t>
+    <rPh sb="0" eb="3">
+      <t>タイカイゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再会員登録テスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>カイイントウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再ログインテスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バグ：エラーが発生し、アプリが終了する
+原因：内部ストレージで、削除されているものを参照していたためエラーが発生
+対応完了</t>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>タイオウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>退会後の影響調査</t>
+    <rPh sb="0" eb="3">
+      <t>タイカイゴ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>エイキョウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイコンの色が白色になっていること</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シロイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンセルボタン押下でモーダルが閉じること</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタン押下でログイン画面へ遷移すること</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮会員モーダルテスト</t>
+    <rPh sb="0" eb="3">
+      <t>カリカイイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未会員モーダルテスト</t>
+    <rPh sb="0" eb="3">
+      <t>ミカイイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録ボタン押下でログイン画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンセルボタンが表示されていること</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンが表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーダルの新規登録ボタンを押下し、ログイン画面に遷移する。その画面からログインした場合、ホーム画面へ遷移すること</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーダルの新規登録ボタンを押下し、ログイン画面に遷移する。その画面から新規登録ボタンを押下して新規アカウントを作成する。その後、仮会員登録完了画面へ遷移すること</t>
+    <rPh sb="35" eb="39">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="64" eb="73">
+      <t>カリカイイントウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くじ引きボタンの非表示テスト
+対象画面のヘッダーの右側にくじ引きボタンが表示されていないこと</t>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>タイショウガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用規約画面</t>
+    <rPh sb="0" eb="4">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規会員登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新着情報詳細画面</t>
+    <rPh sb="0" eb="4">
+      <t>シンチャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クーポン詳細画面</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クーポン使用画面</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･仮会員の場合
+　▶モーダルを表示する
+タイトル：アプリ仮会員です
+本文：会員登録時にご入力いただいたメールアドレスに、会員登録のご確認メールが届いております。そちらに記載されているURLをクリックした後、アプリ上でログインをお願いいたします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　=Androidのみのテスト項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　=エラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　=改修済み</t>
+    <rPh sb="2" eb="4">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタンテスト
+WebViewで画面遷移を数回行い、戻るボタンを押下した際、フラグメント単位ではなく前のweb画面が表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワークエラー時の画面テスト
+WebViewでネットワークが接続されていない場合、ネットワークにつながらない旨を記載した画面が表示されること</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くじ引き画面</t>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>退会画面</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進るボタンテスト
+WebViewで画面遷移を数回行い、進むボタンを押下した際、フラグメント単位ではなく前のweb画面が表示されること</t>
+    <rPh sb="0" eb="1">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リロードボタンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLが展開されたらテスト</t>
+    <rPh sb="4" eb="6">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不具合
+文言で誤字→対応完了</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>タイオウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーの左側の戻るボタンを押下すると、ホーム画面へ戻ること</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>webviewで下記URLが表示されること※
+webviewでログイン情報を保持していない場合は、ログイン画面のURLが表示される
+https://tokiaglobal.com/mypage/withdraw</t>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  =エビデンス未作成</t>
+    <rPh sb="8" eb="11">
+      <t>ミサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くじ引き画面へ遷移テスト
+会員の場合、くじ引きボタンを押下するとくじ引き画面へ遷移すること</t>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くじ引きボタン押下時、くじ引き画面へ遷移すること</t>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>webView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渡辺</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>不具合
 内容：
 仮会員の場合、モーダル文言が未会員用の文言と同じものが表示される
 調査内容：
 仮会員登録した際、メールアドレスの取得に失敗しており、内部ストレージに仮会員情報が登録されていない
-追加機能以前のバグ</t>
+追加機能以前のバグ
+修正完了</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
@@ -533,577 +1141,16 @@
     <rPh sb="102" eb="104">
       <t>イゼン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">退会後の各画面遷移テスト
-内部ストレージを削除するので、各画面で影響がないかテスト
-</t>
-    <rPh sb="0" eb="3">
-      <t>タイカイゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>カクガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>エイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新着情報一覧画面</t>
-    <rPh sb="0" eb="4">
-      <t>シンチャクジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>イチランガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>会員証画面</t>
-    <rPh sb="0" eb="3">
-      <t>カイインショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>退会後、アカウントを新規登録できるかテスト
-仮会員を作成すること</t>
-    <rPh sb="0" eb="3">
-      <t>タイカイゴ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>カリカイイン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>退会後、ログインができること</t>
-    <rPh sb="0" eb="3">
-      <t>タイカイゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>再会員登録テスト</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t>カイイントウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>再ログインテスト</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バグ：エラーが発生し、アプリが終了する
-原因：内部ストレージで、削除されているものを参照していたためエラーが発生
-対応完了</t>
-    <rPh sb="7" eb="9">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="57" eb="61">
-      <t>タイオウカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>退会後の影響調査</t>
-    <rPh sb="0" eb="3">
-      <t>タイカイゴ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>エイキョウチョウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイコンの色が白色になっていること</t>
-    <rPh sb="5" eb="6">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シロイロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャンセルボタン押下でモーダルが閉じること</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインボタン押下でログイン画面へ遷移すること</t>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仮会員モーダルテスト</t>
-    <rPh sb="0" eb="3">
-      <t>カリカイイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未会員モーダルテスト</t>
-    <rPh sb="0" eb="3">
-      <t>ミカイイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規登録ボタン押下でログイン画面へ遷移すること</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャンセルボタンが表示されていること</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録ボタンが表示されていること</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モーダルの新規登録ボタンを押下し、ログイン画面に遷移する。その画面からログインした場合、ホーム画面へ遷移すること</t>
-    <rPh sb="5" eb="9">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モーダルの新規登録ボタンを押下し、ログイン画面に遷移する。その画面から新規登録ボタンを押下して新規アカウントを作成する。その後、仮会員登録完了画面へ遷移すること</t>
-    <rPh sb="35" eb="39">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="64" eb="73">
-      <t>カリカイイントウロクカンリョウガメン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>くじ引きボタンの非表示テスト
-対象画面のヘッダーの右側にくじ引きボタンが表示されていないこと</t>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>タイショウガメン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利用規約画面</t>
-    <rPh sb="0" eb="4">
-      <t>リヨウキヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規会員登録画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カイイントウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新着情報詳細画面</t>
-    <rPh sb="0" eb="4">
-      <t>シンチャクジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クーポン詳細画面</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クーポン使用画面</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>･仮会員の場合
-　▶モーダルを表示する
-タイトル：アプリ仮会員です
-本文：会員登録時にご入力いただいたメールアドレスに、会員登録のご確認メールが届いております。そちらに記載されているURLをクリックした後、アプリ上でログインをお願いいたします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　=Androidのみのテスト項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　=エラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　=改修済み</t>
-    <rPh sb="2" eb="4">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻るボタンテスト
-WebViewで画面遷移を数回行い、戻るボタンを押下した際、フラグメント単位ではなく前のweb画面が表示されること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ネットワークエラー時の画面テスト
-WebViewでネットワークが接続されていない場合、ネットワークにつながらない旨を記載した画面が表示されること</t>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>くじ引き画面</t>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>退会画面</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>進るボタンテスト
-WebViewで画面遷移を数回行い、進むボタンを押下した際、フラグメント単位ではなく前のweb画面が表示されること</t>
-    <rPh sb="0" eb="1">
-      <t>ススム</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リロードボタンテスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>URLが展開されたらテスト</t>
-    <rPh sb="4" eb="6">
-      <t>テンカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不具合
-文言で誤字→対応完了</t>
-    <rPh sb="0" eb="3">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゴジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>タイオウカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヘッダーの左側の戻るボタンを押下すると、ホーム画面へ戻ること</t>
-    <rPh sb="5" eb="7">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>webviewで下記URLが表示されること※
-webviewでログイン情報を保持していない場合は、ログイン画面のURLが表示される
-https://tokiaglobal.com/mypage/withdraw</t>
-    <rPh sb="8" eb="10">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  =エビデンス未作成</t>
-    <rPh sb="8" eb="11">
-      <t>ミサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>くじ引き画面へ遷移テスト
-会員の場合、くじ引きボタンを押下するとくじ引き画面へ遷移すること</t>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>くじ引きボタン押下時、くじ引き画面へ遷移すること</t>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>webView</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1111,35 +1158,6 @@
     <rPh sb="0" eb="2">
       <t>ワタナベ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NG</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1315,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1355,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1367,23 +1382,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1403,24 +1419,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,7 +1825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.109375" style="5" bestFit="1" customWidth="1"/>
@@ -1824,33 +1839,33 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
-      <c r="C2" s="21" t="s">
-        <v>69</v>
+      <c r="C2" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
-        <v>70</v>
+      <c r="C3" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
-      <c r="C4" s="21" t="s">
-        <v>71</v>
+      <c r="C4" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>82</v>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1865,46 +1880,46 @@
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>89</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>91</v>
+      <c r="G8" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J8" s="26"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
@@ -1912,22 +1927,22 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>91</v>
+      <c r="G9" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J9" s="26"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
@@ -1935,22 +1950,22 @@
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>91</v>
+      <c r="G10" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J10" s="26"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
@@ -1958,22 +1973,22 @@
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>91</v>
+      <c r="G11" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J11" s="26"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
@@ -1981,7 +1996,7 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
@@ -1989,16 +2004,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>91</v>
+      <c r="G12" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J12" s="26"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
@@ -2009,23 +2024,23 @@
       <c r="C13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>91</v>
+      <c r="G13" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J13" s="26"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
@@ -2034,21 +2049,21 @@
         <v>7</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>91</v>
+      <c r="G14" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J14" s="26"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
@@ -2057,21 +2072,21 @@
         <v>8</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="23"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>91</v>
+      <c r="G15" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J15" s="26"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
@@ -2080,21 +2095,21 @@
         <v>9</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>91</v>
+      <c r="G16" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J16" s="26"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
@@ -2103,21 +2118,21 @@
         <v>10</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>91</v>
+      <c r="G17" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J17" s="26"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
@@ -2130,19 +2145,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>91</v>
+      <c r="G18" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J18" s="26"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
@@ -2156,16 +2171,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>91</v>
+      <c r="G19" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J19" s="26"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
@@ -2179,16 +2194,16 @@
         <v>18</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>91</v>
+      <c r="G20" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J20" s="26"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
@@ -2202,16 +2217,16 @@
         <v>17</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>91</v>
+      <c r="G21" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J21" s="26"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
@@ -2219,26 +2234,26 @@
       <c r="B22" s="6">
         <v>15</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>91</v>
+      <c r="G22" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J22" s="26"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
@@ -2246,22 +2261,22 @@
       <c r="B23" s="6">
         <v>16</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>91</v>
+      <c r="G23" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J23" s="26"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
@@ -2269,7 +2284,7 @@
       <c r="B24" s="6">
         <v>17</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
@@ -2277,16 +2292,16 @@
         <v>28</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>91</v>
+      <c r="G24" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J24" s="26"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
@@ -2295,25 +2310,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>91</v>
+      <c r="G25" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J25" s="26"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
@@ -2327,16 +2342,16 @@
         <v>31</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>91</v>
+      <c r="G26" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J26" s="26"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
@@ -2347,28 +2362,28 @@
       <c r="C27" s="33"/>
       <c r="D27" s="30"/>
       <c r="E27" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="G27" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="39">
+        <v>86</v>
+      </c>
+      <c r="J27" s="26">
         <v>45218</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>91</v>
+      <c r="K27" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -2378,19 +2393,19 @@
       <c r="C28" s="33"/>
       <c r="D28" s="31"/>
       <c r="E28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>91</v>
+      <c r="G28" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J28" s="26"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
@@ -2400,22 +2415,22 @@
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>91</v>
+      <c r="G29" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J29" s="26"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
@@ -2425,22 +2440,22 @@
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>91</v>
+      <c r="G30" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J30" s="26"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
@@ -2448,26 +2463,26 @@
       <c r="B31" s="6">
         <v>24</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>91</v>
+      <c r="G31" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J31" s="26"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
@@ -2475,22 +2490,22 @@
       <c r="B32" s="6">
         <v>25</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>91</v>
+      <c r="G32" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J32" s="26"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
@@ -2498,22 +2513,22 @@
       <c r="B33" s="6">
         <v>26</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>91</v>
+      <c r="G33" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J33" s="26"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
@@ -2521,22 +2536,22 @@
       <c r="B34" s="6">
         <v>27</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>91</v>
+      <c r="G34" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J34" s="26"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
@@ -2544,24 +2559,24 @@
       <c r="B35" s="6">
         <v>28</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>91</v>
+      <c r="G35" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J35" s="26"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
@@ -2569,22 +2584,22 @@
       <c r="B36" s="6">
         <v>29</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="30"/>
       <c r="E36" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>91</v>
+      <c r="G36" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J36" s="26"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
@@ -2592,22 +2607,22 @@
       <c r="B37" s="6">
         <v>30</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="30"/>
       <c r="E37" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>91</v>
+      <c r="G37" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J37" s="26"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
@@ -2615,22 +2630,22 @@
       <c r="B38" s="6">
         <v>31</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="30"/>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>91</v>
+      <c r="G38" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J38" s="26"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
@@ -2638,22 +2653,22 @@
       <c r="B39" s="6">
         <v>32</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="30"/>
       <c r="E39" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>91</v>
+      <c r="G39" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J39" s="26"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
@@ -2661,22 +2676,22 @@
       <c r="B40" s="6">
         <v>33</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="31"/>
       <c r="E40" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>91</v>
+      <c r="G40" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J40" s="26"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
@@ -2684,55 +2699,55 @@
       <c r="B41" s="6">
         <v>34</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="G41" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="39">
+        <v>86</v>
+      </c>
+      <c r="J41" s="26">
         <v>45218</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="6">
         <v>35</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="33"/>
       <c r="E42" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>91</v>
+      <c r="G42" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J42" s="26"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
@@ -2740,22 +2755,22 @@
       <c r="B43" s="6">
         <v>36</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="33"/>
       <c r="E43" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>91</v>
+      <c r="G43" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J43" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J43" s="26"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
@@ -2763,22 +2778,22 @@
       <c r="B44" s="6">
         <v>37</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>91</v>
+      <c r="G44" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J44" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J44" s="26"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
@@ -2786,22 +2801,22 @@
       <c r="B45" s="6">
         <v>38</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="33"/>
       <c r="E45" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>91</v>
+      <c r="G45" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J45" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J45" s="26"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
@@ -2809,22 +2824,22 @@
       <c r="B46" s="6">
         <v>39</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>91</v>
+      <c r="G46" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J46" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J46" s="26"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
@@ -2832,137 +2847,161 @@
       <c r="B47" s="6">
         <v>40</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="34"/>
       <c r="E47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>91</v>
+      <c r="G47" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="J47" s="26"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="2:12" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B48" s="6">
         <v>41</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>68</v>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H48" s="39" t="s">
         <v>92</v>
       </c>
+      <c r="G48" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="I48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="J48" s="26">
+        <v>45226</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="6">
         <v>42</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="17" t="s">
-        <v>52</v>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="F49" s="10"/>
-      <c r="G49" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>92</v>
+      <c r="G49" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="J49" s="26">
+        <v>45226</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="6">
         <v>43</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="17" t="s">
-        <v>53</v>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F50" s="10"/>
-      <c r="G50" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>92</v>
+      <c r="G50" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="J50" s="26">
+        <v>45226</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>44</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="17" t="s">
-        <v>59</v>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="F51" s="10"/>
-      <c r="G51" s="39">
-        <v>45217</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>92</v>
+      <c r="G51" s="26">
+        <v>45217</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="J51" s="26">
+        <v>45226</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6">
         <v>45</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="38" t="s">
+      <c r="C52" s="35"/>
+      <c r="D52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="36" t="s">
-        <v>84</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="39"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -2972,20 +3011,20 @@
       <c r="B53" s="6">
         <v>49</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -2995,14 +3034,14 @@
       <c r="B54" s="6">
         <v>50</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="36" t="s">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3012,14 +3051,14 @@
       <c r="B55" s="6">
         <v>51</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="37" t="s">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="24" t="s">
         <v>36</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -3029,14 +3068,14 @@
       <c r="B56" s="6">
         <v>52</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="37" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3046,14 +3085,14 @@
       <c r="B57" s="6">
         <v>53</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="36" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3063,16 +3102,16 @@
       <c r="B58" s="6">
         <v>54</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3082,14 +3121,14 @@
       <c r="B59" s="6">
         <v>55</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="36" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="39"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3099,18 +3138,18 @@
       <c r="B60" s="6">
         <v>56</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>72</v>
+      <c r="C60" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="39"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3120,16 +3159,16 @@
       <c r="B61" s="6">
         <v>57</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="22" t="s">
-        <v>74</v>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3139,16 +3178,16 @@
       <c r="B62" s="6">
         <v>58</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26" t="s">
-        <v>76</v>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="39"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3158,16 +3197,16 @@
       <c r="B63" s="6">
         <v>59</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="22" t="s">
-        <v>74</v>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="39"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3177,16 +3216,16 @@
       <c r="B64" s="6">
         <v>60</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="28" t="s">
-        <v>77</v>
+      <c r="C64" s="37"/>
+      <c r="D64" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3196,16 +3235,16 @@
       <c r="B65" s="6">
         <v>61</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="22" t="s">
-        <v>74</v>
+      <c r="C65" s="37"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="39"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3215,16 +3254,16 @@
       <c r="B66" s="6">
         <v>62</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="27" t="s">
-        <v>73</v>
+      <c r="C66" s="37"/>
+      <c r="D66" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3234,16 +3273,16 @@
       <c r="B67" s="6">
         <v>63</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="22" t="s">
-        <v>74</v>
+      <c r="C67" s="37"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="6"/>
-      <c r="H67" s="39"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -3251,6 +3290,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="D18:D21"/>
@@ -3258,21 +3310,8 @@
     <mergeCell ref="D48:D51"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="D35:D40"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="C31:C52"/>
     <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C53:C59"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
